--- a/case-4-b/data/calibration_parameters.xlsx
+++ b/case-4-b/data/calibration_parameters.xlsx
@@ -37,7 +37,7 @@
     <t>^GSPC</t>
   </si>
   <si>
-    <t>2022-03-03</t>
+    <t>2018-10-01</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4386.5400390625</v>
+        <v>2913.97998046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/case-4-b/data/calibration_parameters.xlsx
+++ b/case-4-b/data/calibration_parameters.xlsx
@@ -37,7 +37,7 @@
     <t>^GSPC</t>
   </si>
   <si>
-    <t>2018-10-01</t>
+    <t>2021-12-31</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2913.97998046875</v>
+        <v>4778.72998046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
